--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFContains.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFContains.xlsx
@@ -87,68 +87,24 @@
   </x:cellStyles>
   <x:dxfs count="2">
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor rgb="FFFF0000"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
     <x:dxf>
-      <x:font>
-        <x:vertAlign val="baseline"/>
-        <x:sz val="11"/>
-        <x:color rgb="FF000000"/>
-        <x:name val="Calibri"/>
-        <x:family val="2"/>
-      </x:font>
+      <x:font/>
       <x:fill>
         <x:patternFill patternType="solid">
           <x:fgColor rgb="FFFF0000"/>
           <x:bgColor rgb="FFFF0000"/>
         </x:patternFill>
       </x:fill>
-      <x:border diagonalUp="0" diagonalDown="0">
-        <x:left style="none">
-          <x:color rgb="FF000000"/>
-        </x:left>
-        <x:right style="none">
-          <x:color rgb="FF000000"/>
-        </x:right>
-        <x:top style="none">
-          <x:color rgb="FF000000"/>
-        </x:top>
-        <x:bottom style="none">
-          <x:color rgb="FF000000"/>
-        </x:bottom>
-        <x:diagonal style="none">
-          <x:color rgb="FF000000"/>
-        </x:diagonal>
-      </x:border>
+      <x:border/>
     </x:dxf>
   </x:dxfs>
 </x:styleSheet>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFContains.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFContains.xlsx
@@ -35,7 +35,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFContains.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFContains.xlsx
@@ -407,7 +407,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:A4"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFContains.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/ConditionalFormatting/CFContains.xlsx
@@ -79,12 +79,12 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
